--- a/linux笔记.xlsx
+++ b/linux笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -2748,84 +2748,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>闭当前连接之外的DB连接</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>除DB</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出Dump</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>vim /etc/sysconfig/network-scripts/ifcfg-ens33</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4212,509 +4134,160 @@
     <t>pg_dump -U postgres -d postgres -w -s -t test_table</t>
   </si>
   <si>
-    <r>
-      <t>可以pg_dump --help</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+    <t>pg_dump -U postgres -d postgres -w -s -t test_table &gt; 1.txt</t>
+  </si>
+  <si>
+    <t>-t   表名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg_dump命令</t>
+  </si>
+  <si>
+    <t>pg_dump -h 192.168.0.200 -U postgres -d compass846 -s -f C:\Users\sinways\Desktop\0702.pgsql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>du -sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df -hl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy (select * from users limit 10) to 'D:\svn\test.csv' with csv header;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL指令</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHELL命令</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通过命令行导出CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>看一下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>把得到的数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>出users表到'D:\svn\test.csv' 格式为csv 包含表头</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy users to 'D:\svn\test.csv' with csv header;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存到文件可以用重定向：</t>
-    </r>
-  </si>
-  <si>
-    <t>pg_dump -U postgres -d postgres -w -s -t test_table &gt; 1.txt</t>
-  </si>
-  <si>
-    <r>
-      <t>-U   用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>出检索出的数据到'D:\svn\test.csv' 格式为csv 包含表头</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>执行文件内命令</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\i ''D:\\svn\\OutputCSV.sql'; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通过shell的形式导出CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>psql -h localhost -U postgres -d compass1128 -c "copy users to 'D:\svn\test.csv' with csv header";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>psql -h localhost -U postgres -d compass1128 -c "\i 'D:\\svn\\OutputCSV.sql'";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>关闭当前连接之外的DB连接</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-U   用户名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-d   数据库名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-w   不输入密码</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-W   输入密码</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-s   只转储模式,不转储数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-a   只转储数据,不转储模式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-f   导入/导出文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可以pg_dump --help查看一下</t>
+  </si>
+  <si>
+    <t>把得到的数据转存到文件可以用重定向：</t>
+  </si>
+  <si>
+    <r>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>-d   数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>库</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>入/导出Dump</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>-w   不</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>输</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>-s   只</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转储</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模式,不</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转储</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>-a   只</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转储</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据,不</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转储</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模式</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-t   表名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pg_dump命令</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-f   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出文件</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pg_dump -h 192.168.0.200 -U postgres -d compass846 -s -f C:\Users\sinways\Desktop\0702.pgsql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-W   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>输</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>du -sh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>df -hl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通过命令行导出CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>copy users to 'D:\svn\test.csv' with csv header;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出users表到'D:\svn\test.csv' 格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为csv 包含表头</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>copy (select * from users limit 10) to 'D:\svn\test.csv' with csv header;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>检</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>索出的数据到'D:\svn\test.csv' 格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为csv 包含表头</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>读取文件内命令</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">\i ''D:\\svn\\OutputCSV.sql'; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SQL指令</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>psql -h localhost -U postgres -d compass1128 -c "\i 'D:\\svn\\OutputCSV.sql'";</t>
-  </si>
-  <si>
-    <t>psql -h localhost -U postgres -d compass1128 -c "copy users to 'D:\svn\test.csv' with csv header";</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shell的形式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出CSV</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SHELL命令</t>
+      </rPr>
+      <t>删除DB</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4722,7 +4295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4883,13 +4456,25 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF222226"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="16"/>
+      <color rgb="FF222226"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
@@ -5047,7 +4632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5090,23 +4675,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5486,7 +5073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5584,7 +5173,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -5593,7 +5182,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -5602,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -5611,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -5620,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -5629,7 +5218,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5638,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5678,22 +5267,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5714,52 +5303,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5778,12 +5367,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5802,166 +5391,166 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
         <v>125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5980,277 +5569,277 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B70" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B73" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B75" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B76" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6269,37 +5858,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6318,212 +5907,212 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6536,7 +6125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6544,221 +6133,227 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+    </row>
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+    </row>
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+    </row>
+    <row r="16" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B34" s="27"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="30" t="s">
-        <v>273</v>
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="32" t="s">
-        <v>272</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>264</v>
       </c>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
       <c r="B37" s="31"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="30" t="s">
-        <v>275</v>
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="32" t="s">
-        <v>274</v>
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="B39" s="31"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
       <c r="B40" s="31"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="30" t="s">
-        <v>276</v>
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="B41" s="31"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="30" t="s">
-        <v>277</v>
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="B42" s="31"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
       <c r="B43" s="31"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B45" s="29"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B46" s="29"/>
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="32"/>
+    </row>
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6833,12 +6428,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -6862,7 +6457,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -6875,7 +6470,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -6888,7 +6483,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6901,7 +6496,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6914,7 +6509,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -6927,7 +6522,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6940,7 +6535,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6953,7 +6548,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6977,7 +6572,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6990,7 +6585,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7003,7 +6598,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -7016,7 +6611,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7040,7 +6635,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -7053,7 +6648,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -7066,7 +6661,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -7079,7 +6674,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -7179,12 +6774,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7269,12 +6864,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7296,7 +6891,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
